--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -420,7 +420,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Not Acceptable!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,1251 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Not Acceptable!</t>
+          <t>Skip to content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SWIFT ALLIANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SWIFT Professional services</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SWIFT Alliance Connect Virtual – ACV</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SWIFT Development Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PAYMENT HUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>‌Financial transfer and remittance administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ExchangeSync Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CurrenSync Hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RemitEase Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CompliaGuard Enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FinanceShield AML</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Payment routing solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Transaction Safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Payments as a service (PaaS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GlobalPay Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RemitEase Online</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Support &amp; Infra Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Testing Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PRODUCTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Netlink Message Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TIP- ISO 20022 Translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SWIFT Payment Pre-Validation  Enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AMH DB Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OPEN BANKING</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TINK Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ADORSYS Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SWIFT ALLIANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SWIFT Professional services</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SWIFT Alliance Connect Virtual – ACV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SWIFT Development Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PAYMENT HUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>‌Financial transfer and remittance administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ExchangeSync Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CurrenSync Hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RemitEase Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CompliaGuard Enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FinanceShield AML</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Payment routing solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Transaction Safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Payments as a service (PaaS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GlobalPay Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RemitEase Online</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Support &amp; Infra Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Testing Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PRODUCTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Netlink Message Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TIP- ISO 20022 Translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SWIFT Payment Pre-Validation  Enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AMH DB Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>OPEN BANKING</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TINK Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ADORSYS Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SWIFT ALLIANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SWIFT Professional services</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SWIFT Alliance Connect Virtual – ACV</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SWIFT Development Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PAYMENT HUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>‌Financial transfer and remittance administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ExchangeSync Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CurrenSync Hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RemitEase Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CompliaGuard Enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FinanceShield AML</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Payment routing solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Transaction Safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Payments as a service (PaaS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>GlobalPay Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RemitEase Online</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Support &amp; Infra Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Testing Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PRODUCTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Netlink Message Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TIP- ISO 20022 Translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SWIFT Payment Pre-Validation  Enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>AMH DB Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>OPEN BANKING</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TINK Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ADORSYS Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SWIFT ALLIANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SWIFT Professional services</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SWIFT Alliance Connect Virtual – ACV</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SWIFT Development Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PAYMENT HUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>‌Financial transfer and remittance administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ExchangeSync Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CurrenSync Hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RemitEase Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CompliaGuard Enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>FinanceShield AML</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Payment routing solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Transaction Safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Payments as a service (PaaS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GlobalPay Connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>RemitEase Online</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SERVICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Support &amp; Infra Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Testing Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PRODUCTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Netlink Message Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TIP- ISO 20022 Translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SWIFT Payment Pre-Validation  Enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>AMH DB Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>OPEN BANKING</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TINK Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ADORSYS Open Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Join US
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Know More</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Know More</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Know More</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Know More</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Know More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Know More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Know More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Know More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>OBIE(UK)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Know More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Know More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+										admin					
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Read More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+										admin					
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Read More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+										admin					
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ISO20022</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Read More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+										admin					
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Read More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+										admin					
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Read More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+										admin					
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ISO20022</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Read More
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Netlink-Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Belgium
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ExchangeSync Pro
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Netlink Messsge Manager
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+CurrenSync Hub
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+RemitEase Online
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+FinanceShield 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Latest News
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Netlink-Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Edutech</t>
         </is>
       </c>
     </row>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -424,1251 +424,1173 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Skip to content</t>
+          <t>#content</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- </t>
+          <t>/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SWIFT ALLIANCE</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SWIFT Professional services</t>
+          <t>/swift-professional-services</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SWIFT Alliance Connect Virtual – ACV</t>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SWIFT Development Support</t>
+          <t>/swift-development-support</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PAYMENT HUB</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>‌Financial transfer and remittance administration</t>
-        </is>
-      </c>
-    </row>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ExchangeSync Pro</t>
+          <t>/exchangesync-pro</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CurrenSync Hub</t>
+          <t>/currensync-hub</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RemitEase Connect</t>
+          <t>/remitease-connect</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CompliaGuard Enterprise</t>
+          <t>/compliaguard-enterprise</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FinanceShield AML</t>
+          <t>/financeshield</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Payment routing solution</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Transaction Safeguard</t>
+          <t>/transaction-safeguard</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Payments as a service (PaaS)</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GlobalPay Connect</t>
+          <t>/globalpay-connect</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RemitEase Online</t>
+          <t>/remitease-online</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SERVICES</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Support &amp; Infra Services</t>
+          <t>/support-it-infrastructure-services</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Testing Solutions</t>
+          <t>/testing-solutions</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRODUCTS</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Netlink Message Manager</t>
+          <t>/netlink-message-manager</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TIP- ISO 20022 Translator</t>
+          <t>/tip-iso-20022-translator</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SWIFT Payment Pre-Validation  Enabler</t>
+          <t>/swift-payment-pre-validation-enabler</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AMH DB Health</t>
+          <t>/amh-db-health</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OPEN BANKING</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TINK Open Banking</t>
+          <t>https://tink-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADORSYS Open Banking</t>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SWIFT ALLIANCE</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SWIFT Professional services</t>
+          <t>/swift-professional-services</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SWIFT Alliance Connect Virtual – ACV</t>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SWIFT Development Support</t>
+          <t>/swift-development-support</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAYMENT HUB</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>‌Financial transfer and remittance administration</t>
-        </is>
-      </c>
-    </row>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ExchangeSync Pro</t>
+          <t>/exchangesync-pro</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CurrenSync Hub</t>
+          <t>/currensync-hub</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RemitEase Connect</t>
+          <t>/remitease-connect</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CompliaGuard Enterprise</t>
+          <t>/compliaguard-enterprise</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FinanceShield AML</t>
+          <t>/financeshield</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Payment routing solution</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Transaction Safeguard</t>
+          <t>/transaction-safeguard</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Payments as a service (PaaS)</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GlobalPay Connect</t>
+          <t>/globalpay-connect</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RemitEase Online</t>
+          <t>/remitease-online</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SERVICES</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Support &amp; Infra Services</t>
+          <t>/support-it-infrastructure-services</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Testing Solutions</t>
+          <t>/testing-solutions</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRODUCTS</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Netlink Message Manager</t>
+          <t>/netlink-message-manager</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TIP- ISO 20022 Translator</t>
+          <t>/tip-iso-20022-translator</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SWIFT Payment Pre-Validation  Enabler</t>
+          <t>/swift-payment-pre-validation-enabler</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AMH DB Health</t>
+          <t>/amh-db-health</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>OPEN BANKING</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TINK Open Banking</t>
+          <t>https://tink-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ADORSYS Open Banking</t>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SWIFT ALLIANCE</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SWIFT Professional services</t>
+          <t>/swift-professional-services</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SWIFT Alliance Connect Virtual – ACV</t>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SWIFT Development Support</t>
+          <t>/swift-development-support</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PAYMENT HUB</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>‌Financial transfer and remittance administration</t>
-        </is>
-      </c>
-    </row>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="70"/>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ExchangeSync Pro</t>
+          <t>/exchangesync-pro</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CurrenSync Hub</t>
+          <t>/currensync-hub</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RemitEase Connect</t>
+          <t>/remitease-connect</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CompliaGuard Enterprise</t>
+          <t>/compliaguard-enterprise</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FinanceShield AML</t>
+          <t>/financeshield</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Payment routing solution</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Transaction Safeguard</t>
+          <t>/transaction-safeguard</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Payments as a service (PaaS)</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GlobalPay Connect</t>
+          <t>/globalpay-connect</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RemitEase Online</t>
+          <t>/remitease-online</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SERVICES</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Support &amp; Infra Services</t>
+          <t>/support-it-infrastructure-services</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Testing Solutions</t>
+          <t>/testing-solutions</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRODUCTS</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Netlink Message Manager</t>
+          <t>/netlink-message-manager</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TIP- ISO 20022 Translator</t>
+          <t>/tip-iso-20022-translator</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SWIFT Payment Pre-Validation  Enabler</t>
+          <t>/swift-payment-pre-validation-enabler</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AMH DB Health</t>
+          <t>/amh-db-health</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OPEN BANKING</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TINK Open Banking</t>
+          <t>https://tink-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ADORSYS Open Banking</t>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SWIFT ALLIANCE</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SWIFT Payment stack – SAA, SMH, AMH, SAG – SNL</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SWIFT Professional services</t>
+          <t>/swift-professional-services</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SWIFT Alliance Connect Virtual – ACV</t>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SWIFT Development Support</t>
+          <t>/swift-development-support</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IPLA / SIL Replacement – Swift Integration Platform</t>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PAYMENT HUB</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>‌Financial transfer and remittance administration</t>
-        </is>
-      </c>
-    </row>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="100"/>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ExchangeSync Pro</t>
+          <t>/exchangesync-pro</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CurrenSync Hub</t>
+          <t>/currensync-hub</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RemitEase Connect</t>
+          <t>/remitease-connect</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Know Your Customer (KYC), risk assessment, and compliance</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CompliaGuard Enterprise</t>
+          <t>/compliaguard-enterprise</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FinanceShield AML</t>
+          <t>/financeshield</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Payment routing solution</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Transaction Safeguard</t>
+          <t>/transaction-safeguard</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Payments as a service (PaaS)</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GlobalPay Connect</t>
+          <t>/globalpay-connect</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RemitEase Online</t>
+          <t>/remitease-online</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SERVICES</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Support &amp; Infra Services</t>
+          <t>/support-it-infrastructure-services</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Testing Solutions</t>
+          <t>/testing-solutions</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRODUCTS</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Netlink Message Manager</t>
+          <t>/netlink-message-manager</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TIP- ISO 20022 Translator</t>
+          <t>/tip-iso-20022-translator</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SWIFT Payment Pre-Validation  Enabler</t>
+          <t>/swift-payment-pre-validation-enabler</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AMH DB Health</t>
+          <t>/amh-db-health</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OPEN BANKING</t>
+          <t>#</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TINK Open Banking</t>
+          <t>https://tink-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ADORSYS Open Banking</t>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Join US
-</t>
+          <t>#home-form</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Know More</t>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Know More</t>
+          <t>/hsm-refresh_updates</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Know More</t>
+          <t>/saa-7-7-upgrade</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Know More</t>
+          <t>/swift-alliance-connect-virtual-acv</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Know More
-</t>
+          <t>/swift-alliance-connect-virtual-acv</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Know More
-</t>
+          <t>/saa-7-7-upgrade</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Know More
-</t>
+          <t>/hsm-refresh_updates</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Know More
-</t>
+          <t>/tip-iso-20022-translator</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>OBIE(UK)</t>
+          <t>https://www.openbanking.org.uk/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Know More
-</t>
+          <t>https://tink-poc.netlink-testlabs.com/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Know More
-</t>
+          <t>/financeshield</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-										admin					
-</t>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>https://netlink-testlabs.com/blog/category/blog/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Latest</t>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Read More
-</t>
+          <t>https://netlink-testlabs.com/blog/the-swift-alliance-access-saa-upgrade-to-version-7-7/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-										admin					
-</t>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>https://netlink-testlabs.com/blog/category/blog/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Latest</t>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Read More
-</t>
+          <t>https://netlink-testlabs.com/blog/connect-laptop-to-serial-port-on-hsm/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-										admin					
-</t>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>https://netlink-testlabs.com/blog/category/business/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>https://netlink-testlabs.com/blog/category/finance-standard/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ISO20022</t>
+          <t>https://netlink-testlabs.com/blog/category/iso20022/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Latest</t>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>https://netlink-testlabs.com/blog/category/technology/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Read More
-</t>
+          <t>https://netlink-testlabs.com/blog/mt-to-mx-transformation/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-										admin					
-</t>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>https://netlink-testlabs.com/blog/category/service/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Read More
-</t>
+          <t>https://netlink-testlabs.com/blog/decoding-csp/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-										admin					
-</t>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>https://netlink-testlabs.com/blog/category/business/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Latest</t>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Read More
-</t>
+          <t>https://netlink-testlabs.com/blog/unleashing-financial-efficiency-a-comprehensive-exploration-of-swift-sme-professional-consultation/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-										admin					
-</t>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ISO20022</t>
+          <t>https://netlink-testlabs.com/blog/category/iso20022/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Latest</t>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Read More
-</t>
+          <t>https://netlink-testlabs.com/blog/iso20022-migration-2/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- </t>
+          <t>/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Netlink-Group</t>
+          <t>https://netlink-group.com</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Belgium
-</t>
+          <t>http://Belgium</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-ExchangeSync Pro
-</t>
+          <t>/exchangesync-pro</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Netlink Messsge Manager
-</t>
+          <t>/netlink-message-manager</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-CurrenSync Hub
-</t>
+          <t>/currensync-hub</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-RemitEase Online
-</t>
+          <t>/remitease-online</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-FinanceShield 
-</t>
+          <t>/financeshield</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Latest News
-</t>
+          <t>/news-updates</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Netlink-Group</t>
+          <t>https://netlink-group.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Edutech</t>
+          <t>https://edutechwebsolution.com</t>
         </is>
       </c>
     </row>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,1173 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>An appropriate representation of the requested resource could not be found on this server. This error was generated by Mod_Security.</t>
+          <t>#content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/swift-professional-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/swift-development-support</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/exchangesync-pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/currensync-hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/remitease-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/compliaguard-enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/financeshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/transaction-safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/globalpay-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/remitease-online</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/support-it-infrastructure-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/testing-solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/netlink-message-manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/tip-iso-20022-translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/swift-payment-pre-validation-enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/amh-db-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://tink-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/swift-professional-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/swift-development-support</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/exchangesync-pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/currensync-hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/remitease-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/compliaguard-enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/financeshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/transaction-safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/globalpay-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/remitease-online</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/support-it-infrastructure-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/testing-solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/netlink-message-manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/tip-iso-20022-translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/swift-payment-pre-validation-enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/amh-db-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://tink-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/swift-professional-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/swift-development-support</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/exchangesync-pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/currensync-hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/remitease-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/compliaguard-enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/financeshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/transaction-safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>/globalpay-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>/remitease-online</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>/support-it-infrastructure-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>/testing-solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>/netlink-message-manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>/tip-iso-20022-translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>/swift-payment-pre-validation-enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>/amh-db-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://tink-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>/swift-professional-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/swift-alliance-connect-virtual-acv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>/swift-development-support</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>/exchangesync-pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>/currensync-hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>/remitease-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>/compliaguard-enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>/financeshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>/transaction-safeguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>/globalpay-connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>/remitease-online</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>/support-it-infrastructure-services</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>/testing-solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>/netlink-message-manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>/tip-iso-20022-translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>/swift-payment-pre-validation-enabler</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>/amh-db-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://tink-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://adorsys-poc.netlink-testlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>#home-form</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>/ipla-sil-replacement-swift-integration-platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>/hsm-refresh_updates</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>/saa-7-7-upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>/swift-alliance-connect-virtual-acv</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>/swift-alliance-connect-virtual-acv</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>/saa-7-7-upgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>/hsm-refresh_updates</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>/tip-iso-20022-translator</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.openbanking.org.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://tink-poc.netlink-testlabs.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>/financeshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/blog/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/the-swift-alliance-access-saa-upgrade-to-version-7-7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/blog/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/connect-laptop-to-serial-port-on-hsm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/business/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/finance-standard/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/iso20022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/technology/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/mt-to-mx-transformation/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/service/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/decoding-csp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/business/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/unleashing-financial-efficiency-a-comprehensive-exploration-of-swift-sme-professional-consultation/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/author/admin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/iso20022/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/category/latest/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://netlink-testlabs.com/blog/iso20022-migration-2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://netlink-group.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>http://Belgium</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>/exchangesync-pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>/netlink-message-manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>/currensync-hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>/remitease-online</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>/financeshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>/news-updates</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://netlink-group.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://edutechwebsolution.com</t>
         </is>
       </c>
     </row>

--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -1590,7 +1590,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://edutechwebsolution.com</t>
+          <t>https://webocta.com/</t>
         </is>
       </c>
     </row>
